--- a/genshin/429562021695720646_2020-08-31_14-00-02.xlsx
+++ b/genshin/429562021695720646_2020-08-31_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>3445172494</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:38:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44078.69363425926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>3445731184</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:08:02</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44076.50557870371</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>3445726943</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-02 12:07:53</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44076.50547453704</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>3445172494</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-02 08:31:08</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44076.3549537037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-02 01:40:21</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44076.0696875</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-01 21:28:07</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44075.89452546297</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>3443141508</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-01 18:53:01</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44075.78681712963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1037,10 +1039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-01 18:18:56</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44075.76314814815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1104,10 +1104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-01 16:53:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44075.70349537037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1175,10 +1173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-01 13:12:44</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44075.55050925926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1250,10 +1246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-01 12:24:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44075.51721064815</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1317,10 +1311,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-01 11:23:49</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44075.47487268518</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1396,10 +1388,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-01 11:10:29</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44075.46561342593</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1472,10 +1462,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-01 10:48:27</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44075.4503125</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1551,10 +1539,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-01 10:12:49</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44075.42556712963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1627,10 +1613,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-01 10:06:43</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44075.42133101852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1706,10 +1690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-01 09:55:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44075.41327546296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1781,10 +1763,8 @@
           <t>3441380409</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-01 09:03:46</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44075.37761574074</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1856,10 +1836,8 @@
           <t>3439494246</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-01 08:47:46</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44075.36650462963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1928,10 +1906,8 @@
           <t>3438851222</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-01 08:42:21</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44075.36274305556</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2007,10 +1983,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-01 07:21:44</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44075.30675925926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2083,10 +2057,8 @@
           <t>3441179907</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-01 07:02:32</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44075.29342592593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2159,10 +2131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-01 06:31:29</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44075.27186342593</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2231,10 +2201,8 @@
           <t>3441080956</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-01 03:54:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44075.16309027778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2306,10 +2274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-01 03:01:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44075.12578703704</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2381,10 +2347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-01 01:10:22</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44075.04886574074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2456,10 +2420,8 @@
           <t>3440830909</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-01 00:47:01</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44075.03265046296</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2527,10 +2489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-01 00:16:28</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44075.01143518519</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2598,10 +2558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-01 00:05:58</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44075.00414351852</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2665,10 +2623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-08-31 22:59:13</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44074.95778935185</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2740,10 +2696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-08-31 22:34:30</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44074.940625</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2811,10 +2765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-08-31 22:32:46</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44074.93942129629</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2878,10 +2830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-08-31 21:30:23</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44074.89609953704</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2949,10 +2899,8 @@
           <t>3439826184</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:53:32</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44074.87050925926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3020,10 +2968,8 @@
           <t>3439732309</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:34:13</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44074.85709490741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3095,10 +3041,8 @@
           <t>3439723359</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:32:07</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44074.85563657407</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3174,10 +3118,8 @@
           <t>3439675669</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:20:48</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44074.84777777778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3249,10 +3191,8 @@
           <t>3439510072</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:11:17</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44074.84116898148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3320,10 +3260,8 @@
           <t>3439510072</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:08:19</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44074.8391087963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3391,10 +3329,8 @@
           <t>3439562447</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:58:26</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44074.83224537037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3463,10 +3399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:53:49</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44074.82903935185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3531,10 +3465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:49:01</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44074.82570601852</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3594,10 +3526,8 @@
           <t>3439510072</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:44:57</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44074.82288194444</v>
       </c>
       <c r="I44" t="n">
         <v>5</v>
@@ -3665,10 +3595,8 @@
           <t>3439494246</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:43:47</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44074.82207175926</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
@@ -3736,10 +3664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:43:22</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44074.82178240741</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3807,10 +3733,8 @@
           <t>3439459971</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:36:52</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44074.81726851852</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3889,10 +3813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:29:31</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44074.81216435185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3952,10 +3874,8 @@
           <t>3439122157</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:09:56</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44074.79856481482</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4031,10 +3951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:04:27</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44074.79475694444</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4094,10 +4012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:35:12</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44074.77444444445</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4165,10 +4081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:25:20</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44074.76759259259</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4236,10 +4150,8 @@
           <t>3439122157</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:20:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44074.76440972222</v>
       </c>
       <c r="I53" t="n">
         <v>4</v>
@@ -4307,10 +4219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:15:59</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44074.76109953703</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4382,10 +4292,8 @@
           <t>3438395955</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:14:12</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44074.75986111111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4453,10 +4361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:04:19</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44074.75299768519</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4528,10 +4434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:36:54</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44074.73395833333</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4591,10 +4495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:27:50</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44074.72766203704</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4658,10 +4560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:26:16</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44074.72657407408</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4737,10 +4637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:20:47</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44074.7227662037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4808,10 +4706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:15:59</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44074.71943287037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4887,10 +4783,8 @@
           <t>3438851222</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:13:08</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44074.71745370371</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4966,10 +4860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:09:33</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44074.71496527778</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5037,10 +4929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:09:33</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44074.71496527778</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5100,10 +4990,8 @@
           <t>3438833712</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:09:23</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44074.71484953703</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5167,10 +5055,8 @@
           <t>3438830530</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:06:52</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44074.71310185185</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5238,10 +5124,8 @@
           <t>3438795497</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:57:06</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44074.70631944444</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5309,10 +5193,8 @@
           <t>3438784617</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:56:23</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44074.70582175926</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5388,10 +5270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:55:16</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44074.70504629629</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5451,10 +5331,8 @@
           <t>3438530919</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:52:25</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44074.70306712963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5522,10 +5400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:46:49</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44074.69917824074</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5601,10 +5477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:46:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44074.69861111111</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5680,10 +5554,8 @@
           <t>3438736065</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:40:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44074.69511574074</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5759,10 +5631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:39:37</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44074.69417824074</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5830,10 +5700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:39:01</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44074.69376157408</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5909,10 +5777,8 @@
           <t>3438719419</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:38:10</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44074.6931712963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5976,10 +5842,8 @@
           <t>3438718920</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:37:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44074.69288194444</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6055,10 +5919,8 @@
           <t>3438710704</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:33:53</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44074.69019675926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6135,10 +5997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:30:24</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44074.68777777778</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6202,10 +6062,8 @@
           <t>3438687483</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:27:47</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44074.68596064814</v>
       </c>
       <c r="I80" t="n">
         <v>5</v>
@@ -6269,10 +6127,8 @@
           <t>3438677366</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:24:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44074.68394675926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6340,10 +6196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:19:28</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44074.68018518519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6415,10 +6269,8 @@
           <t>3438660849</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:19:06</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44074.67993055555</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6482,10 +6334,8 @@
           <t>3438655762</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:17:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44074.67873842592</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6553,10 +6403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:14:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44074.6769212963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6620,10 +6468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:14:24</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44074.67666666667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6691,10 +6537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:06:20</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44074.67106481481</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6758,10 +6602,8 @@
           <t>3438530919</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:02:03</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44074.66809027778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6829,10 +6671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:50:20</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44074.6599537037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6896,10 +6736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:48:49</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44074.65890046296</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6967,10 +6805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:41:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44074.65355324074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7046,10 +6882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:40:57</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44074.6534375</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7121,10 +6955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:40:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44074.65306712963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7196,10 +7028,8 @@
           <t>3438530919</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:40:16</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44074.65296296297</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7267,10 +7097,8 @@
           <t>3438498288</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:36:42</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44074.65048611111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7339,10 +7167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:32:19</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44074.64744212963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7418,10 +7244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:31:45</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44074.64704861111</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7485,10 +7309,8 @@
           <t>3438498288</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:31:23</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44074.64679398148</v>
       </c>
       <c r="I98" t="n">
         <v>4</v>
@@ -7552,10 +7374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:29:46</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44074.6456712963</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -7631,10 +7451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:25:53</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44074.64297453704</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7710,10 +7528,8 @@
           <t>3438476148</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:22:31</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44074.64063657408</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7777,10 +7593,8 @@
           <t>3438451731</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:16:13</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44074.63626157407</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7852,10 +7666,8 @@
           <t>3438438156</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:12:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44074.63396990741</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7919,10 +7731,8 @@
           <t>3438395955</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:11:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44074.63304398148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7986,10 +7796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:11:27</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44074.63295138889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8061,10 +7869,8 @@
           <t>3438435414</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:10:19</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44074.63216435185</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8128,10 +7934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:06:31</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44074.62952546297</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8203,10 +8007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:06:03</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44074.62920138889</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8274,10 +8076,8 @@
           <t>3438333370</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:04:32</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44074.62814814815</v>
       </c>
       <c r="I109" t="n">
         <v>4</v>
@@ -8345,10 +8145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:02:38</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44074.6268287037</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8416,10 +8214,8 @@
           <t>3438311204</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:00:32</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44074.62537037037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8491,10 +8287,8 @@
           <t>3438395955</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:58:23</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44074.62387731481</v>
       </c>
       <c r="I112" t="n">
         <v>6</v>
@@ -8558,10 +8352,8 @@
           <t>3438391523</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:57:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44074.62315972222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8633,10 +8425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:56:36</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44074.62263888889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8700,10 +8490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:55:00</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44074.62152777778</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8779,10 +8567,8 @@
           <t>3438385751</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:54:01</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44074.6208449074</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8858,10 +8644,8 @@
           <t>3438381111</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:53:48</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44074.62069444444</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -8925,10 +8709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:52:30</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44074.61979166666</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8997,10 +8779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:49:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44074.61804398148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9064,10 +8844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:49:33</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44074.61774305555</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9135,10 +8913,8 @@
           <t>3438359702</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:48:20</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44074.61689814815</v>
       </c>
       <c r="I121" t="n">
         <v>11</v>
@@ -9214,10 +8990,8 @@
           <t>3438227649</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:47:13</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44074.61612268518</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9281,10 +9055,8 @@
           <t>3438353064</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:46:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44074.61545138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9356,10 +9128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:45:35</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44074.61498842593</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9435,10 +9205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:44:05</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44074.61394675926</v>
       </c>
       <c r="I125" t="n">
         <v>10</v>
@@ -9514,10 +9282,8 @@
           <t>3438346991</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:43:41</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44074.61366898148</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9593,10 +9359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:42:38</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44074.61293981481</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9672,10 +9436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:42:36</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44074.61291666667</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9739,10 +9501,8 @@
           <t>3438333370</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:40:17</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44074.61130787037</v>
       </c>
       <c r="I129" t="n">
         <v>10</v>
@@ -9814,10 +9574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:38:57</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44074.61038194445</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9893,10 +9651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:38:51</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44074.6103125</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9972,10 +9728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:35:55</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44074.60827546296</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10043,10 +9797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:35:50</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44074.60821759259</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10110,10 +9862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:34:52</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44074.6075462963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10174,10 +9924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:33:11</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44074.60637731481</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10245,10 +9993,8 @@
           <t>3438315402</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:32:50</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44074.60613425926</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10316,10 +10062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:32:44</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44074.60606481481</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10391,10 +10135,8 @@
           <t>3438311204</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:30:53</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44074.6047800926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10471,10 +10213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:30:41</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44074.6046412037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10542,10 +10282,8 @@
           <t>3438305378</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:29:39</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44074.60392361111</v>
       </c>
       <c r="I140" t="n">
         <v>5</v>
@@ -10613,10 +10351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:28:40</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44074.60324074074</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10692,10 +10428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:24:41</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44074.60047453704</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10771,10 +10505,8 @@
           <t>3438286186</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:24:32</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44074.60037037037</v>
       </c>
       <c r="I143" t="n">
         <v>32</v>
@@ -10850,10 +10582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:21:48</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44074.59847222222</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10921,10 +10651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:20:11</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44074.59734953703</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11001,10 +10729,8 @@
           <t>3438267536</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:18:31</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44074.59619212963</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11072,10 +10798,8 @@
           <t>3438267105</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:18:09</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44074.5959375</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11143,10 +10867,8 @@
           <t>3438258820</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:18:00</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44074.59583333333</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11214,10 +10936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:17:24</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44074.59541666666</v>
       </c>
       <c r="I149" t="n">
         <v>45</v>
@@ -11281,10 +11001,8 @@
           <t>3438265958</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:17:07</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44074.59521990741</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11364,10 +11082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:16:48</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44074.595</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11443,10 +11159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:16:33</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44074.59482638889</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11518,10 +11232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:16:14</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44074.59460648148</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11593,10 +11305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:15:47</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44074.59429398148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11665,10 +11375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:13:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44074.59238425926</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11740,10 +11448,8 @@
           <t>3438251336</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:12:59</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44074.59234953704</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11811,10 +11517,8 @@
           <t>3438246341</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:12:48</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44074.59222222222</v>
       </c>
       <c r="I157" t="n">
         <v>11</v>
@@ -11890,10 +11594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:12:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44074.59170138889</v>
       </c>
       <c r="I158" t="n">
         <v>10</v>
@@ -11969,10 +11671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:30</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44074.59131944444</v>
       </c>
       <c r="I159" t="n">
         <v>134</v>
@@ -12040,10 +11740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:21</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44074.59121527777</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12119,10 +11817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:14</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44074.59113425926</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12186,10 +11882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:11</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44074.59109953704</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12261,10 +11955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:08</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44074.59106481481</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12340,10 +12032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:02</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44074.59099537037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12415,10 +12105,8 @@
           <t>3438233761</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:10:37</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44074.59070601852</v>
       </c>
       <c r="I165" t="n">
         <v>5</v>
@@ -12486,10 +12174,8 @@
           <t>3438233723</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:10:35</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44074.59068287037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12565,10 +12251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:09:34</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44074.58997685185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12637,10 +12321,8 @@
           <t>3438237403</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:09:25</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44074.58987268519</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12718,10 +12400,8 @@
           <t>3438226571</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:08:33</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44074.58927083333</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12797,10 +12477,8 @@
           <t>3438210259</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:08:18</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44074.58909722222</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12876,10 +12554,8 @@
           <t>3438227649</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:08:06</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44074.58895833333</v>
       </c>
       <c r="I171" t="n">
         <v>12</v>
@@ -12951,10 +12627,8 @@
           <t>3438230061</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:07:18</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44074.58840277778</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13026,10 +12700,8 @@
           <t>3438226571</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:07:10</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44074.58831018519</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13105,10 +12777,8 @@
           <t>3438210259</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:06:53</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44074.58811342593</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13180,10 +12850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:06:52</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44074.58810185185</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13259,10 +12927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:06:49</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44074.58806712963</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13330,10 +12996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:06:20</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44074.58773148148</v>
       </c>
       <c r="I177" t="n">
         <v>6</v>
@@ -13397,10 +13061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:05:16</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44074.58699074074</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13476,10 +13138,8 @@
           <t>3438217692</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:05:14</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44074.58696759259</v>
       </c>
       <c r="I179" t="n">
         <v>6</v>
@@ -13551,10 +13211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:05:09</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44074.58690972222</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13626,10 +13284,8 @@
           <t>3438221321</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:45</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44074.58663194445</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13705,10 +13361,8 @@
           <t>3438210259</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:35</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44074.5865162037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13784,10 +13438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:15</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44074.58628472222</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13860,10 +13512,8 @@
           <t>3438221321</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:00</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44074.58611111111</v>
       </c>
       <c r="I184" t="n">
         <v>18</v>
@@ -13939,10 +13589,8 @@
           <t>3438210259</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:00</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44074.58611111111</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14014,10 +13662,8 @@
           <t>3438215989</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:03:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44074.58590277778</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -14089,10 +13735,8 @@
           <t>3438215561</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:03:35</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44074.58582175926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14168,10 +13812,8 @@
           <t>3438215733</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:03:29</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44074.58575231482</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14247,10 +13889,8 @@
           <t>3438215169</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:03:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44074.58563657408</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14326,10 +13966,8 @@
           <t>3438215561</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:03:19</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44074.58563657408</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14397,10 +14035,8 @@
           <t>3438209222</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:03:05</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44074.58547453704</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14476,10 +14112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:57</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44074.58538194445</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14551,10 +14185,8 @@
           <t>3438215169</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:57</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44074.58538194445</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14618,10 +14250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:50</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44074.58530092592</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14689,10 +14319,8 @@
           <t>3438209507</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:50</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44074.58530092592</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14768,10 +14396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44074.58513888889</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14839,10 +14465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44074.58510416667</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14906,10 +14530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:28</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44074.5850462963</v>
       </c>
       <c r="I198" t="n">
         <v>507</v>
@@ -14985,10 +14607,8 @@
           <t>3438209507</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:27</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44074.58503472222</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15056,10 +14676,8 @@
           <t>3438209222</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:13</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44074.58487268518</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15127,10 +14745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44074.58480324074</v>
       </c>
       <c r="I201" t="n">
         <v>470</v>
@@ -15202,10 +14818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:05</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44074.58478009259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15269,10 +14883,8 @@
           <t>3438210259</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:04</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44074.58476851852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15348,10 +14960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:51</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44074.58461805555</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15419,10 +15029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:48</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44074.58458333334</v>
       </c>
       <c r="I205" t="n">
         <v>28</v>
@@ -15490,10 +15098,8 @@
           <t>3438210259</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:35</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44074.58443287037</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15565,10 +15171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:33</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44074.58440972222</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15636,10 +15240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:32</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44074.58439814814</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15715,10 +15317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:31</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44074.58438657408</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15782,10 +15382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:31</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44074.58438657408</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15861,10 +15459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:22</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44074.58428240741</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15941,10 +15537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:17</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44074.58422453704</v>
       </c>
       <c r="I212" t="n">
         <v>16</v>
@@ -16020,10 +15614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:14</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44074.58418981481</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16087,10 +15679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:11</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44074.58415509259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16175,10 +15765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:11</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44074.58415509259</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16251,10 +15839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:09</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44074.58413194444</v>
       </c>
       <c r="I216" t="n">
         <v>64</v>
@@ -16334,10 +15920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:07</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44074.5841087963</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16405,10 +15989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44074.58405092593</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16484,10 +16066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:00</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44074.58402777778</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16552,10 +16132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:59</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44074.58401620371</v>
       </c>
       <c r="I220" t="n">
         <v>219</v>
@@ -16619,10 +16197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:59</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44074.58401620371</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16686,10 +16262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:56</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44074.58398148148</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16765,10 +16339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:54</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44074.58395833334</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16844,10 +16416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44074.58394675926</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16915,10 +16485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:53</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44074.58394675926</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16986,10 +16554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:47</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44074.58387731481</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17061,10 +16627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:47</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44074.58387731481</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17128,10 +16692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:47</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44074.58387731481</v>
       </c>
       <c r="I228" t="n">
         <v>5</v>
@@ -17208,10 +16770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:44</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44074.58384259259</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17279,10 +16839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:42</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44074.58381944444</v>
       </c>
       <c r="I230" t="n">
         <v>13</v>
@@ -17358,10 +16916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:41</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44074.58380787037</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17433,10 +16989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:39</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44074.58378472222</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17512,10 +17066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:39</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44074.58378472222</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17579,10 +17131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:37</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44074.58376157407</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17659,10 +17209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:35</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44074.58373842593</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17726,10 +17274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:27</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44074.58364583334</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17801,10 +17347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:20</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44074.58356481481</v>
       </c>
       <c r="I237" t="n">
         <v>186</v>
@@ -17880,10 +17424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:16</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44074.58351851852</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17947,10 +17489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:16</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44074.58351851852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18018,10 +17558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:00:15</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44074.58350694444</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
